--- a/tests/xls_files/Demand.xlsx
+++ b/tests/xls_files/Demand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="18530" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -38,6 +38,57 @@
   </si>
   <si>
     <t>category 7</t>
+  </si>
+  <si>
+    <t>category 8</t>
+  </si>
+  <si>
+    <t>category 9</t>
+  </si>
+  <si>
+    <t>category 10</t>
+  </si>
+  <si>
+    <t>category 11</t>
+  </si>
+  <si>
+    <t>category 12</t>
+  </si>
+  <si>
+    <t>category 13</t>
+  </si>
+  <si>
+    <t>category 14</t>
+  </si>
+  <si>
+    <t>category 15</t>
+  </si>
+  <si>
+    <t>category 16</t>
+  </si>
+  <si>
+    <t>category 17</t>
+  </si>
+  <si>
+    <t>category 18</t>
+  </si>
+  <si>
+    <t>category 19</t>
+  </si>
+  <si>
+    <t>category 20</t>
+  </si>
+  <si>
+    <t>category 21</t>
+  </si>
+  <si>
+    <t>category 22</t>
+  </si>
+  <si>
+    <t>category 23</t>
+  </si>
+  <si>
+    <t>category 24</t>
   </si>
 </sst>
 </file>
@@ -45,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,7 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,6 +120,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,6 +194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -90,29 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -129,63 +225,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,7 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,37 +264,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,145 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,20 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,11 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,32 +518,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,157 +546,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +763,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -717,7 +773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,7 +789,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -745,7 +801,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -762,9 +818,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -797,9 +853,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -974,303 +1030,763 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.1363636363636" customWidth="1"/>
-    <col min="2" max="2" width="10.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.81818181818182" customWidth="1"/>
+    <col min="1" max="1" width="12.1363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.0909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81818181818182" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>45064</v>
-      </c>
-      <c r="B2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:25">
+      <c r="A2" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B2" s="1">
         <v>269</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>324</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>379</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>380</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>381</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>382</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>343</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>45065</v>
-      </c>
-      <c r="B3">
+      <c r="I2" s="1">
+        <v>304</v>
+      </c>
+      <c r="J2" s="1">
+        <v>265</v>
+      </c>
+      <c r="K2" s="1">
+        <v>226</v>
+      </c>
+      <c r="L2" s="1">
+        <v>187</v>
+      </c>
+      <c r="M2" s="1">
+        <v>148</v>
+      </c>
+      <c r="N2" s="1">
+        <v>109</v>
+      </c>
+      <c r="O2" s="1">
+        <v>70</v>
+      </c>
+      <c r="P2" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1">
+        <v>73</v>
+      </c>
+      <c r="S2" s="1">
+        <v>74</v>
+      </c>
+      <c r="T2" s="1">
+        <v>75</v>
+      </c>
+      <c r="U2" s="1">
+        <v>176</v>
+      </c>
+      <c r="V2" s="1">
+        <v>77</v>
+      </c>
+      <c r="W2" s="1">
+        <v>78</v>
+      </c>
+      <c r="X2" s="1">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:25">
+      <c r="A3" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B3" s="1">
         <v>270</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>325</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>380</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>381</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>382</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>383</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>344</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>45066</v>
-      </c>
-      <c r="B4">
+      <c r="I3" s="1">
+        <v>305</v>
+      </c>
+      <c r="J3" s="1">
+        <v>266</v>
+      </c>
+      <c r="K3" s="1">
+        <v>227</v>
+      </c>
+      <c r="L3" s="1">
+        <v>188</v>
+      </c>
+      <c r="M3" s="1">
+        <v>149</v>
+      </c>
+      <c r="N3" s="1">
+        <v>110</v>
+      </c>
+      <c r="O3" s="1">
+        <v>71</v>
+      </c>
+      <c r="P3" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>73</v>
+      </c>
+      <c r="R3" s="1">
+        <v>74</v>
+      </c>
+      <c r="S3" s="1">
+        <v>75</v>
+      </c>
+      <c r="T3" s="1">
+        <v>76</v>
+      </c>
+      <c r="U3" s="1">
+        <v>77</v>
+      </c>
+      <c r="V3" s="1">
+        <v>78</v>
+      </c>
+      <c r="W3" s="1">
+        <v>79</v>
+      </c>
+      <c r="X3" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:25">
+      <c r="A4" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B4" s="1">
         <v>271</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>326</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>381</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>382</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>383</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>384</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>45067</v>
-      </c>
-      <c r="B5">
+      <c r="I4" s="1">
+        <v>306</v>
+      </c>
+      <c r="J4" s="1">
+        <v>267</v>
+      </c>
+      <c r="K4" s="1">
+        <v>228</v>
+      </c>
+      <c r="L4" s="1">
+        <v>189</v>
+      </c>
+      <c r="M4" s="1">
+        <v>150</v>
+      </c>
+      <c r="N4" s="1">
+        <v>111</v>
+      </c>
+      <c r="O4" s="1">
+        <v>72</v>
+      </c>
+      <c r="P4" s="1">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>74</v>
+      </c>
+      <c r="R4" s="1">
+        <v>75</v>
+      </c>
+      <c r="S4" s="1">
+        <v>76</v>
+      </c>
+      <c r="T4" s="1">
+        <v>77</v>
+      </c>
+      <c r="U4" s="1">
+        <v>78</v>
+      </c>
+      <c r="V4" s="1">
+        <v>79</v>
+      </c>
+      <c r="W4" s="1">
+        <v>80</v>
+      </c>
+      <c r="X4" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:25">
+      <c r="A5" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B5" s="1">
         <v>272</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>327</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>382</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>383</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>384</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>385</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>346</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>45068</v>
-      </c>
-      <c r="B6">
+      <c r="I5" s="1">
+        <v>307</v>
+      </c>
+      <c r="J5" s="1">
+        <v>268</v>
+      </c>
+      <c r="K5" s="1">
+        <v>229</v>
+      </c>
+      <c r="L5" s="1">
+        <v>190</v>
+      </c>
+      <c r="M5" s="1">
+        <v>151</v>
+      </c>
+      <c r="N5" s="1">
+        <v>112</v>
+      </c>
+      <c r="O5" s="1">
+        <v>73</v>
+      </c>
+      <c r="P5" s="1">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>75</v>
+      </c>
+      <c r="R5" s="1">
+        <v>76</v>
+      </c>
+      <c r="S5" s="1">
+        <v>77</v>
+      </c>
+      <c r="T5" s="1">
+        <v>78</v>
+      </c>
+      <c r="U5" s="1">
+        <v>79</v>
+      </c>
+      <c r="V5" s="1">
+        <v>80</v>
+      </c>
+      <c r="W5" s="1">
+        <v>81</v>
+      </c>
+      <c r="X5" s="1">
+        <v>82</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:25">
+      <c r="A6" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B6" s="1">
         <v>273</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>328</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>383</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>384</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>385</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>386</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>347</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>45069</v>
-      </c>
-      <c r="B7">
+      <c r="I6" s="1">
+        <v>308</v>
+      </c>
+      <c r="J6" s="1">
+        <v>269</v>
+      </c>
+      <c r="K6" s="1">
+        <v>230</v>
+      </c>
+      <c r="L6" s="1">
+        <v>191</v>
+      </c>
+      <c r="M6" s="1">
+        <v>152</v>
+      </c>
+      <c r="N6" s="1">
+        <v>113</v>
+      </c>
+      <c r="O6" s="1">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>76</v>
+      </c>
+      <c r="R6" s="1">
+        <v>77</v>
+      </c>
+      <c r="S6" s="1">
+        <v>78</v>
+      </c>
+      <c r="T6" s="1">
+        <v>79</v>
+      </c>
+      <c r="U6" s="1">
+        <v>80</v>
+      </c>
+      <c r="V6" s="1">
+        <v>81</v>
+      </c>
+      <c r="W6" s="1">
+        <v>82</v>
+      </c>
+      <c r="X6" s="1">
+        <v>83</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:25">
+      <c r="A7" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B7" s="1">
         <v>274</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>329</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>384</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>385</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>386</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>387</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>45070</v>
-      </c>
-      <c r="B8">
+      <c r="I7" s="1">
+        <v>309</v>
+      </c>
+      <c r="J7" s="1">
+        <v>270</v>
+      </c>
+      <c r="K7" s="1">
+        <v>231</v>
+      </c>
+      <c r="L7" s="1">
+        <v>192</v>
+      </c>
+      <c r="M7" s="1">
+        <v>153</v>
+      </c>
+      <c r="N7" s="1">
+        <v>114</v>
+      </c>
+      <c r="O7" s="1">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>77</v>
+      </c>
+      <c r="R7" s="1">
+        <v>78</v>
+      </c>
+      <c r="S7" s="1">
+        <v>79</v>
+      </c>
+      <c r="T7" s="1">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1">
+        <v>81</v>
+      </c>
+      <c r="V7" s="1">
+        <v>82</v>
+      </c>
+      <c r="W7" s="1">
+        <v>83</v>
+      </c>
+      <c r="X7" s="1">
+        <v>84</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:25">
+      <c r="A8" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B8" s="1">
         <v>275</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>330</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>385</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>386</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>387</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>388</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>349</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>45071</v>
-      </c>
-      <c r="B9">
+      <c r="I8" s="1">
+        <v>310</v>
+      </c>
+      <c r="J8" s="1">
+        <v>271</v>
+      </c>
+      <c r="K8" s="1">
+        <v>232</v>
+      </c>
+      <c r="L8" s="1">
+        <v>193</v>
+      </c>
+      <c r="M8" s="1">
+        <v>154</v>
+      </c>
+      <c r="N8" s="1">
+        <v>115</v>
+      </c>
+      <c r="O8" s="1">
+        <v>76</v>
+      </c>
+      <c r="P8" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>78</v>
+      </c>
+      <c r="R8" s="1">
+        <v>79</v>
+      </c>
+      <c r="S8" s="1">
+        <v>80</v>
+      </c>
+      <c r="T8" s="1">
+        <v>81</v>
+      </c>
+      <c r="U8" s="1">
+        <v>82</v>
+      </c>
+      <c r="V8" s="1">
+        <v>83</v>
+      </c>
+      <c r="W8" s="1">
+        <v>84</v>
+      </c>
+      <c r="X8" s="1">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:25">
+      <c r="A9" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B9" s="1">
         <v>276</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>331</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>386</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>387</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>388</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>389</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="I9" s="1">
+        <v>311</v>
+      </c>
+      <c r="J9" s="1">
+        <v>272</v>
+      </c>
+      <c r="K9" s="1">
+        <v>233</v>
+      </c>
+      <c r="L9" s="1">
+        <v>194</v>
+      </c>
+      <c r="M9" s="1">
+        <v>155</v>
+      </c>
+      <c r="N9" s="1">
+        <v>116</v>
+      </c>
+      <c r="O9" s="1">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>79</v>
+      </c>
+      <c r="R9" s="1">
+        <v>80</v>
+      </c>
+      <c r="S9" s="1">
+        <v>81</v>
+      </c>
+      <c r="T9" s="1">
+        <v>82</v>
+      </c>
+      <c r="U9" s="1">
+        <v>83</v>
+      </c>
+      <c r="V9" s="1">
+        <v>84</v>
+      </c>
+      <c r="W9" s="1">
+        <v>85</v>
+      </c>
+      <c r="X9" s="1">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:1">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>